--- a/ETL/yetl.xlsx
+++ b/ETL/yetl.xlsx
@@ -7,16 +7,15 @@
     <workbookView xWindow="120" yWindow="60" windowWidth="28620" windowHeight="13245" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Regioes" sheetId="1" r:id="rId1"/>
-    <sheet name="Paragens" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Paragens" sheetId="2" r:id="rId1"/>
+    <sheet name="Precos" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="73">
   <si>
     <t>Nome</t>
   </si>
@@ -36,21 +35,12 @@
     <t>Leiria</t>
   </si>
   <si>
-    <t>Activo</t>
-  </si>
-  <si>
-    <t>Linha de Cascais</t>
-  </si>
-  <si>
     <t>Regiao</t>
   </si>
   <si>
     <t>Default</t>
   </si>
   <si>
-    <t>GoogleLink</t>
-  </si>
-  <si>
     <t>Aeroporto (OPO)</t>
   </si>
   <si>
@@ -214,6 +204,36 @@
   </si>
   <si>
     <t>https://goo.gl/maps/mFZRTiifjkz</t>
+  </si>
+  <si>
+    <t>GoogleLocation</t>
+  </si>
+  <si>
+    <t>Tarifa</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Last Minute</t>
+  </si>
+  <si>
+    <t>Member Get Member</t>
+  </si>
+  <si>
+    <t>Promocional</t>
+  </si>
+  <si>
+    <t>Preco</t>
+  </si>
+  <si>
+    <t>Origem</t>
+  </si>
+  <si>
+    <t>Destino</t>
   </si>
 </sst>
 </file>
@@ -251,7 +271,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,570 +573,686 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>29.9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="C11" t="s">
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>46</v>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>48</v>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>50</v>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>11.9</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26">
         <v>3</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>65</v>
+      <c r="E26" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ETL/yetl.xlsx
+++ b/ETL/yetl.xlsx
@@ -965,7 +965,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
